--- a/mySystem/mySystem/xls/BPVBag/16 SOP-MFG-306-R04A  BPV切管记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/16 SOP-MFG-306-R04A  BPV切管记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\306,  BPV生产记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -350,23 +350,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依据指令中可选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生产日期 时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -395,21 +383,6 @@
         <charset val="134"/>
       </rPr>
       <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,8 +390,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,18 +482,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -635,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,27 +657,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,43 +717,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -783,7 +744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1075,7 +1036,7 @@
       <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
@@ -1087,7 +1048,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1103,74 +1064,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="28" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1180,10 +1141,10 @@
       <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="I5" s="24"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -1203,7 +1164,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -1223,7 +1184,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -1243,7 +1204,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -1263,7 +1224,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -1283,7 +1244,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>6</v>
       </c>
@@ -1303,7 +1264,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -1323,7 +1284,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>8</v>
       </c>
@@ -1343,7 +1304,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>9</v>
       </c>
@@ -1363,7 +1324,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1383,7 +1344,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -1403,7 +1364,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -1423,37 +1384,42 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A19" s="38" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="A18:J18"/>
@@ -1464,11 +1430,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1479,26 +1440,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
     <col min="6" max="8" width="10.125" style="14" customWidth="1"/>
-    <col min="9" max="10" width="11.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1515,22 +1477,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>21</v>
       </c>
@@ -1539,53 +1501,53 @@
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="23" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="K4" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1595,88 +1557,56 @@
       <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="24"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="21">
-        <v>200</v>
-      </c>
-      <c r="E7" s="22">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="21">
-        <v>300</v>
-      </c>
-      <c r="E8" s="22">
-        <v>56</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -1684,20 +1614,14 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -1705,20 +1629,14 @@
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>6</v>
       </c>
@@ -1726,20 +1644,14 @@
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -1747,20 +1659,14 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>8</v>
       </c>
@@ -1768,20 +1674,14 @@
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>9</v>
       </c>
@@ -1789,20 +1689,14 @@
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1810,20 +1704,14 @@
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -1831,20 +1719,14 @@
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -1852,100 +1734,47 @@
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="8">
-        <v>13</v>
-      </c>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="8">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="8">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
@@ -1954,9 +1783,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
